--- a/第一问数据/北京数据_v3 final(1).xlsx
+++ b/第一问数据/北京数据_v3 final(1).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suibe\Desktop\深圳杯\数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018-2019-2\深圳杯\第一问数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07430AB-36F5-4D30-83E4-DBE8A10CB05B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
     <sheet name="指标" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="104">
   <si>
     <t>时间</t>
   </si>
@@ -492,11 +491,19 @@
     <t>蓝色为统计数字空缺，拍脑门得来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,6 +1139,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1139,15 +1155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1160,7 +1167,7 @@
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{D326E1EE-4BAD-4183-AB5D-E32216096B4C}"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1437,20 +1444,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1619,7 @@
         <v>910.55955353208992</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
         <v>13</v>
       </c>
@@ -1775,7 +1782,7 @@
         <v>3527.5268817204301</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2042,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B49" s="57" t="s">
         <v>19</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>3.2376344086021507</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
         <v>21</v>
       </c>
@@ -2359,7 +2366,7 @@
         <v>7.8225806451612909E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B73" s="57" t="s">
         <v>22</v>
       </c>
@@ -2543,7 +2550,7 @@
       <c r="F84" s="56"/>
       <c r="G84" s="56"/>
     </row>
-    <row r="85" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B85" s="57" t="s">
         <v>25</v>
       </c>
@@ -2736,7 +2743,7 @@
       <c r="F96" s="56"/>
       <c r="G96" s="56"/>
     </row>
-    <row r="97" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B97" s="57" t="s">
         <v>26</v>
       </c>
@@ -2928,7 +2935,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="109" spans="2:9" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B109" s="57" t="s">
         <v>32</v>
       </c>
@@ -3104,7 +3111,7 @@
       <c r="F120" s="56"/>
       <c r="G120" s="56"/>
     </row>
-    <row r="121" spans="2:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B121" s="57" t="s">
         <v>33</v>
       </c>
@@ -3273,7 +3280,7 @@
         <v>5.2333333333333338E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="56"/>
       <c r="B133" s="57" t="s">
         <v>64</v>
@@ -3437,7 +3444,7 @@
         <v>4.4086021505376341E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>35</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B157" s="57" t="s">
         <v>65</v>
       </c>
@@ -3702,7 +3709,7 @@
         <v>48.440860215053767</v>
       </c>
     </row>
-    <row r="169" spans="2:25" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B169" s="57" t="s">
         <v>68</v>
       </c>
@@ -4663,7 +4670,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A242" s="56"/>
       <c r="B242" s="57" t="s">
         <v>69</v>
@@ -4841,35 +4848,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB7BF9B-BA9A-4F9E-A09E-E04366910273}">
-  <dimension ref="A2:X30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AA47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J46" sqref="J46:AA47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" style="62" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="59"/>
-    <col min="3" max="4" width="10.90625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="59" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="59" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" style="62" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="59"/>
+    <col min="3" max="4" width="10.88671875" style="59" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="59" customWidth="1"/>
     <col min="8" max="8" width="11" style="59" customWidth="1"/>
     <col min="9" max="9" width="14" style="59" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" style="59" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="59" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="59"/>
-    <col min="13" max="13" width="11.36328125" style="59" customWidth="1"/>
-    <col min="14" max="17" width="8.7265625" style="59"/>
-    <col min="18" max="18" width="14.7265625" style="59" customWidth="1"/>
-    <col min="19" max="23" width="8.7265625" style="59"/>
+    <col min="10" max="10" width="10.21875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="59" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="59"/>
+    <col min="13" max="13" width="11.33203125" style="59" customWidth="1"/>
+    <col min="14" max="17" width="8.77734375" style="59"/>
+    <col min="18" max="18" width="14.77734375" style="59" customWidth="1"/>
+    <col min="19" max="23" width="8.77734375" style="59"/>
     <col min="24" max="24" width="14" style="59" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="59"/>
+    <col min="25" max="16384" width="8.77734375" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="59" t="s">
         <v>97</v>
       </c>
@@ -4879,7 +4886,7 @@
       <c r="D2" s="107"/>
       <c r="E2" s="107"/>
     </row>
-    <row r="3" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" s="92" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A3" s="97"/>
       <c r="B3" s="89" t="s">
         <v>85</v>
@@ -4906,18 +4913,18 @@
       <c r="P3" s="115"/>
       <c r="Q3" s="115"/>
       <c r="R3" s="115"/>
-      <c r="S3" s="108" t="s">
+      <c r="S3" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="110"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="113"/>
       <c r="X3" s="91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A4" s="97"/>
       <c r="B4" s="93" t="s">
         <v>86</v>
@@ -4956,18 +4963,18 @@
       <c r="P4" s="114"/>
       <c r="Q4" s="114"/>
       <c r="R4" s="114"/>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="110"/>
       <c r="X4" s="95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="64" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="64" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
       <c r="A5" s="98"/>
       <c r="B5" s="75" t="s">
         <v>84</v>
@@ -5039,7 +5046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B6" s="77"/>
       <c r="C6" s="68" t="s">
         <v>2</v>
@@ -5080,7 +5087,7 @@
       </c>
       <c r="X6" s="78"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B7" s="77"/>
       <c r="C7" s="68" t="s">
         <v>4</v>
@@ -5151,7 +5158,7 @@
         <v>5.6467510354348827</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B8" s="77"/>
       <c r="C8" s="68" t="s">
         <v>5</v>
@@ -5221,7 +5228,7 @@
         <v>5.4822825586746431</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B9" s="77"/>
       <c r="C9" s="68" t="s">
         <v>6</v>
@@ -5291,7 +5298,7 @@
         <v>5.3099953938277293</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B10" s="77"/>
       <c r="C10" s="68" t="s">
         <v>7</v>
@@ -5361,7 +5368,7 @@
         <v>5.0701672862453533</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B11" s="77"/>
       <c r="C11" s="68" t="s">
         <v>8</v>
@@ -5431,7 +5438,7 @@
         <v>4.9489361702127663</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B12" s="77"/>
       <c r="C12" s="68" t="s">
         <v>9</v>
@@ -5501,7 +5508,7 @@
         <v>4.9623006283228612</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B13" s="77"/>
       <c r="C13" s="68" t="s">
         <v>10</v>
@@ -5571,7 +5578,7 @@
         <v>4.6255572065378905</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B14" s="77"/>
       <c r="C14" s="68" t="s">
         <v>11</v>
@@ -5641,7 +5648,7 @@
         <v>2.1855249745158001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="80"/>
       <c r="C15" s="81" t="s">
         <v>12</v>
@@ -5706,12 +5713,12 @@
         <v>1.6935483870967742</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="F16" s="61"/>
       <c r="I16" s="63"/>
       <c r="L16" s="60"/>
     </row>
-    <row r="17" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="59" t="s">
         <v>98</v>
       </c>
@@ -5719,7 +5726,7 @@
       <c r="I17" s="63"/>
       <c r="L17" s="60"/>
     </row>
-    <row r="18" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" s="92" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A18" s="97"/>
       <c r="B18" s="89" t="s">
         <v>85</v>
@@ -5746,18 +5753,18 @@
       <c r="P18" s="115"/>
       <c r="Q18" s="115"/>
       <c r="R18" s="115"/>
-      <c r="S18" s="108" t="s">
+      <c r="S18" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
-      <c r="W18" s="110"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="113"/>
       <c r="X18" s="91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="96" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" s="96" customFormat="1" ht="16.2" x14ac:dyDescent="0.4">
       <c r="A19" s="97"/>
       <c r="B19" s="93" t="s">
         <v>86</v>
@@ -5796,18 +5803,18 @@
       <c r="P19" s="114"/>
       <c r="Q19" s="114"/>
       <c r="R19" s="114"/>
-      <c r="S19" s="111" t="s">
+      <c r="S19" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
-      <c r="V19" s="112"/>
-      <c r="W19" s="113"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="109"/>
+      <c r="V19" s="109"/>
+      <c r="W19" s="110"/>
       <c r="X19" s="95" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="64" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="64" customFormat="1" ht="64.8" x14ac:dyDescent="0.25">
       <c r="A20" s="98"/>
       <c r="B20" s="75" t="s">
         <v>84</v>
@@ -5879,7 +5886,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B21" s="77"/>
       <c r="C21" s="68" t="s">
         <v>2</v>
@@ -5920,7 +5927,7 @@
       </c>
       <c r="X21" s="78"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B22" s="77"/>
       <c r="C22" s="68" t="s">
         <v>4</v>
@@ -6007,7 +6014,7 @@
         <v>3.0000000000000051E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23" s="77"/>
       <c r="C23" s="68" t="s">
         <v>5</v>
@@ -6094,7 +6101,7 @@
         <v>3.2445821901687176E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B24" s="77"/>
       <c r="C24" s="68" t="s">
         <v>6</v>
@@ -6181,7 +6188,7 @@
         <v>4.7301813538380831E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B25" s="77"/>
       <c r="C25" s="68" t="s">
         <v>7</v>
@@ -6268,7 +6275,7 @@
         <v>2.4496399198330125E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B26" s="77"/>
       <c r="C26" s="68" t="s">
         <v>8</v>
@@ -6355,7 +6362,7 @@
         <v>-2.693197996472811E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B27" s="77"/>
       <c r="C27" s="68" t="s">
         <v>9</v>
@@ -6442,7 +6449,7 @@
         <v>7.2800617687531419E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B28" s="77"/>
       <c r="C28" s="68" t="s">
         <v>10</v>
@@ -6526,7 +6533,7 @@
         <v>1.1164513151183166</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B29" s="77"/>
       <c r="C29" s="68" t="s">
         <v>11</v>
@@ -6607,7 +6614,7 @@
         <v>0.29050046114266287</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="80"/>
       <c r="C30" s="81" t="s">
         <v>12</v>
@@ -6634,8 +6641,700 @@
       <c r="W30" s="84"/>
       <c r="X30" s="100"/>
     </row>
+    <row r="37" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I37" s="3">
+        <v>2017</v>
+      </c>
+      <c r="J37" s="3">
+        <v>84</v>
+      </c>
+      <c r="K37" s="3">
+        <v>4259.6499309999999</v>
+      </c>
+      <c r="L37" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="M37" s="3">
+        <v>14.279134040000001</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2.429755873</v>
+      </c>
+      <c r="O37" s="3">
+        <v>9.3136803000000004E-2</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.514933211</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.62723260999999997</v>
+      </c>
+      <c r="S37" s="3">
+        <v>1.8668816000000001E-2</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0.459511746</v>
+      </c>
+      <c r="U37" s="3">
+        <v>7.4159374E-2</v>
+      </c>
+      <c r="V37" s="3">
+        <v>113</v>
+      </c>
+      <c r="W37" s="3">
+        <v>55.550437590000001</v>
+      </c>
+      <c r="X37" s="3">
+        <v>7.2274573999999994E-2</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>80.88</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>5.6467510350000003</v>
+      </c>
+    </row>
+    <row r="38" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I38" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J38" s="3">
+        <v>92</v>
+      </c>
+      <c r="K38" s="3">
+        <v>4015.692591</v>
+      </c>
+      <c r="L38" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="M38" s="3">
+        <v>13.851817759999999</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2.4841233319999998</v>
+      </c>
+      <c r="O38" s="3">
+        <v>8.7988954999999994E-2</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0.487887713</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.65777895600000003</v>
+      </c>
+      <c r="S38" s="3">
+        <v>1.8946157000000002E-2</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.44974689400000001</v>
+      </c>
+      <c r="U38" s="3">
+        <v>7.0869765000000001E-2</v>
+      </c>
+      <c r="V38" s="3">
+        <v>108</v>
+      </c>
+      <c r="W38" s="3">
+        <v>53.842613900000003</v>
+      </c>
+      <c r="X38" s="3">
+        <v>5.7314372000000002E-2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>80.78</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>5.4822825589999997</v>
+      </c>
+    </row>
+    <row r="39" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I39" s="3">
+        <v>2015</v>
+      </c>
+      <c r="J39" s="3">
+        <v>102</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3640.396131</v>
+      </c>
+      <c r="L39" s="3">
+        <v>48.4</v>
+      </c>
+      <c r="M39" s="3">
+        <v>13.5882082</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2.4877936429999998</v>
+      </c>
+      <c r="O39" s="3">
+        <v>8.3371717999999997E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1.2436665E-2</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0.469857209</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0.60295343700000004</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1.8330493E-2</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0.45006909299999998</v>
+      </c>
+      <c r="U39" s="3">
+        <v>6.8631967000000002E-2</v>
+      </c>
+      <c r="V39" s="3">
+        <v>104</v>
+      </c>
+      <c r="W39" s="3">
+        <v>51.404882540000003</v>
+      </c>
+      <c r="X39" s="3">
+        <v>5.2306672999999998E-2</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>4.95</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>5.3099953940000004</v>
+      </c>
+    </row>
+    <row r="40" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I40" s="3">
+        <v>2014</v>
+      </c>
+      <c r="J40" s="3">
+        <v>116</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3410.0371749999999</v>
+      </c>
+      <c r="L40" s="3">
+        <v>49.1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>10.780669140000001</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2.522769517</v>
+      </c>
+      <c r="O40" s="3">
+        <v>8.0390334999999993E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.2081784E-2</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0.44657063200000002</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.632261611</v>
+      </c>
+      <c r="S40" s="3">
+        <v>1.7855762000000001E-2</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0.44786245400000002</v>
+      </c>
+      <c r="U40" s="3">
+        <v>6.6914498000000003E-2</v>
+      </c>
+      <c r="V40" s="3">
+        <v>99</v>
+      </c>
+      <c r="W40" s="3">
+        <v>51.022304830000003</v>
+      </c>
+      <c r="X40" s="3">
+        <v>6.0165714000000002E-2</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>80.58</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>4.92</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>5.0701672860000002</v>
+      </c>
+    </row>
+    <row r="41" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I41" s="3">
+        <v>2013</v>
+      </c>
+      <c r="J41" s="3">
+        <v>108</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3175.8392429999999</v>
+      </c>
+      <c r="L41" s="3">
+        <v>47.1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>10.969267139999999</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2.6302600470000002</v>
+      </c>
+      <c r="O41" s="3">
+        <v>7.5697399999999998E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.2765957E-2</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.435115839</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.62203231000000003</v>
+      </c>
+      <c r="S41" s="3">
+        <v>1.8651442000000001E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0.45782505899999998</v>
+      </c>
+      <c r="U41" s="3">
+        <v>6.3356973999999996E-2</v>
+      </c>
+      <c r="V41" s="3">
+        <v>155</v>
+      </c>
+      <c r="W41" s="3">
+        <v>49.172576829999997</v>
+      </c>
+      <c r="X41" s="3">
+        <v>7.1189316000000002E-2</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>80.48</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>4.9489361699999996</v>
+      </c>
+    </row>
+    <row r="42" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I42" s="3">
+        <v>2012</v>
+      </c>
+      <c r="J42" s="3">
+        <v>109</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3133.446109</v>
+      </c>
+      <c r="L42" s="3">
+        <v>46.2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>10.24649589</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2.7902368289999999</v>
+      </c>
+      <c r="O42" s="3">
+        <v>7.3417109999999994E-2</v>
+      </c>
+      <c r="P42" s="3">
+        <v>9.6665060000000001E-3</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0.433629773</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.64331742199999997</v>
+      </c>
+      <c r="S42" s="3">
+        <v>1.8842049E-2</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0.46553890799999997</v>
+      </c>
+      <c r="U42" s="3">
+        <v>5.9449008999999997E-2</v>
+      </c>
+      <c r="V42" s="3">
+        <v>95</v>
+      </c>
+      <c r="W42" s="3">
+        <v>48.42919285</v>
+      </c>
+      <c r="X42" s="3">
+        <v>7.7760079999999995E-2</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>80.38</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>4.9623006280000004</v>
+      </c>
+    </row>
+    <row r="43" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I43" s="3">
+        <v>2011</v>
+      </c>
+      <c r="J43" s="3">
+        <v>114</v>
+      </c>
+      <c r="K43" s="3">
+        <v>3141.9019320000002</v>
+      </c>
+      <c r="L43" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="M43" s="3">
+        <v>9.7573055970000002</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2.8940069340000001</v>
+      </c>
+      <c r="O43" s="3">
+        <v>7.9148093000000003E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3.0708270999999999E-2</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0.42716196099999998</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0.69001578500000005</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1.9206092000000001E-2</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0.47028231799999998</v>
+      </c>
+      <c r="U43" s="3">
+        <v>5.1510648999999999E-2</v>
+      </c>
+      <c r="V43" s="3">
+        <v>142</v>
+      </c>
+      <c r="W43" s="3">
+        <v>46.904408119999999</v>
+      </c>
+      <c r="X43" s="3">
+        <v>8.0542826999999997E-2</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>80.28</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>4.6255572069999999</v>
+      </c>
+    </row>
+    <row r="44" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I44" s="3">
+        <v>2010</v>
+      </c>
+      <c r="J44" s="3">
+        <v>103.5714286</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3226.1977569999999</v>
+      </c>
+      <c r="L44" s="3">
+        <v>46.65</v>
+      </c>
+      <c r="M44" s="3">
+        <v>9.6839959229999995</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3.0407747199999999</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7.8686950000000006E-2</v>
+      </c>
+      <c r="P44" s="3">
+        <v>5.0458716000000001E-2</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.41987767599999998</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0.73212930600000004</v>
+      </c>
+      <c r="S44" s="3">
+        <v>2.0036190999999998E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0.47966360899999999</v>
+      </c>
+      <c r="U44" s="3">
+        <v>4.5871559999999999E-2</v>
+      </c>
+      <c r="V44" s="3">
+        <v>136</v>
+      </c>
+      <c r="W44" s="3">
+        <v>47.298674820000002</v>
+      </c>
+      <c r="X44" s="3">
+        <v>8.8164072999999996E-2</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>4.41</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>2.1855249749999999</v>
+      </c>
+    </row>
+    <row r="45" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I45" s="3">
+        <v>2009</v>
+      </c>
+      <c r="J45" s="3">
+        <v>103.5714286</v>
+      </c>
+      <c r="K45" s="3">
+        <v>3527.5268820000001</v>
+      </c>
+      <c r="L45" s="3">
+        <v>47.7</v>
+      </c>
+      <c r="M45" s="3">
+        <v>9.7311827960000006</v>
+      </c>
+      <c r="N45" s="3">
+        <v>3.237634409</v>
+      </c>
+      <c r="O45" s="3">
+        <v>7.8225805999999995E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1.9227237000000001E-2</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.401655914</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.78784746999999999</v>
+      </c>
+      <c r="S45" s="3">
+        <v>2.0866289999999999E-2</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0.52333333299999996</v>
+      </c>
+      <c r="U45" s="3">
+        <v>4.4086022000000002E-2</v>
+      </c>
+      <c r="V45" s="3">
+        <v>129</v>
+      </c>
+      <c r="W45" s="3">
+        <v>48.440860219999998</v>
+      </c>
+      <c r="X45" s="3">
+        <v>9.1494672999999999E-2</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>1.6935483870000001</v>
+      </c>
+    </row>
+    <row r="46" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I46" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="59">
+        <f>MIN(J37:J45)*0.9</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="K46" s="59">
+        <f t="shared" ref="K46:AA46" si="10">MIN(K37:K45)*0.9</f>
+        <v>2820.1014980999998</v>
+      </c>
+      <c r="L46" s="59">
+        <f t="shared" si="10"/>
+        <v>41.04</v>
+      </c>
+      <c r="M46" s="59">
+        <f t="shared" si="10"/>
+        <v>8.7155963307000004</v>
+      </c>
+      <c r="N46" s="59">
+        <f t="shared" si="10"/>
+        <v>2.1867802856999998</v>
+      </c>
+      <c r="O46" s="59">
+        <f t="shared" si="10"/>
+        <v>6.6075398999999993E-2</v>
+      </c>
+      <c r="P46" s="59">
+        <f t="shared" si="10"/>
+        <v>8.6998553999999995E-3</v>
+      </c>
+      <c r="Q46" s="59">
+        <f t="shared" si="10"/>
+        <v>0.36149032260000002</v>
+      </c>
+      <c r="R46" s="59">
+        <f t="shared" si="10"/>
+        <v>0.54265809330000003</v>
+      </c>
+      <c r="S46" s="59">
+        <f t="shared" si="10"/>
+        <v>1.6070185800000001E-2</v>
+      </c>
+      <c r="T46" s="59">
+        <f t="shared" si="10"/>
+        <v>0.40307620860000004</v>
+      </c>
+      <c r="U46" s="59">
+        <f t="shared" si="10"/>
+        <v>3.9677419800000002E-2</v>
+      </c>
+      <c r="V46" s="59">
+        <f t="shared" si="10"/>
+        <v>85.5</v>
+      </c>
+      <c r="W46" s="59">
+        <f t="shared" si="10"/>
+        <v>42.213967308000001</v>
+      </c>
+      <c r="X46" s="59">
+        <f t="shared" si="10"/>
+        <v>4.70760057E-2</v>
+      </c>
+      <c r="Y46" s="59">
+        <f t="shared" si="10"/>
+        <v>72.009</v>
+      </c>
+      <c r="Z46" s="59">
+        <f t="shared" si="10"/>
+        <v>3.8429999999999995</v>
+      </c>
+      <c r="AA46" s="59">
+        <f t="shared" si="10"/>
+        <v>1.5241935483000002</v>
+      </c>
+    </row>
+    <row r="47" spans="9:27" x14ac:dyDescent="0.35">
+      <c r="I47" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="59">
+        <f>MAX(J37:J45)*1.1</f>
+        <v>127.60000000000001</v>
+      </c>
+      <c r="K47" s="59">
+        <f t="shared" ref="K47:AA47" si="11">MAX(K37:K45)*1.1</f>
+        <v>4685.6149241000003</v>
+      </c>
+      <c r="L47" s="59">
+        <f t="shared" si="11"/>
+        <v>54.010000000000005</v>
+      </c>
+      <c r="M47" s="59">
+        <f t="shared" si="11"/>
+        <v>15.707047444000002</v>
+      </c>
+      <c r="N47" s="59">
+        <f t="shared" si="11"/>
+        <v>3.5613978499000001</v>
+      </c>
+      <c r="O47" s="59">
+        <f t="shared" si="11"/>
+        <v>0.10245048330000001</v>
+      </c>
+      <c r="P47" s="59">
+        <f t="shared" si="11"/>
+        <v>5.5504587600000002E-2</v>
+      </c>
+      <c r="Q47" s="59">
+        <f t="shared" si="11"/>
+        <v>0.56642653210000005</v>
+      </c>
+      <c r="R47" s="59">
+        <f t="shared" si="11"/>
+        <v>0.86663221700000004</v>
+      </c>
+      <c r="S47" s="59">
+        <f t="shared" si="11"/>
+        <v>2.2952919000000002E-2</v>
+      </c>
+      <c r="T47" s="59">
+        <f t="shared" si="11"/>
+        <v>0.57566666629999996</v>
+      </c>
+      <c r="U47" s="59">
+        <f t="shared" si="11"/>
+        <v>8.1575311400000003E-2</v>
+      </c>
+      <c r="V47" s="59">
+        <f t="shared" si="11"/>
+        <v>170.5</v>
+      </c>
+      <c r="W47" s="59">
+        <f t="shared" si="11"/>
+        <v>61.105481349000009</v>
+      </c>
+      <c r="X47" s="59">
+        <f t="shared" si="11"/>
+        <v>0.1006441403</v>
+      </c>
+      <c r="Y47" s="59">
+        <f t="shared" si="11"/>
+        <v>88.968000000000004</v>
+      </c>
+      <c r="Z47" s="59">
+        <f t="shared" si="11"/>
+        <v>5.83</v>
+      </c>
+      <c r="AA47" s="59">
+        <f t="shared" si="11"/>
+        <v>6.2114261385000011</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:R18"/>
     <mergeCell ref="S4:W4"/>
     <mergeCell ref="S3:W3"/>
     <mergeCell ref="F4:H4"/>
@@ -6643,13 +7342,6 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="M3:R3"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:R18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
